--- a/ArticleManage/main_working_folder/output_folders/Data 11 Effect of precursor composition/Data11_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 11 Effect of precursor composition/Data11_all_graphs_excel.xlsx
@@ -5,20 +5,20 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 4 Conoco_Ag-120min  0&amp;1&amp;" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 4 Conoco_Ag-240min  0&amp;1&amp;" sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 4 Conoco_Ag-360min  0&amp;1&amp;" sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 4 Conoco_Ag-540min  0&amp;1&amp;" sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 4 Conoco_pure-120min  0&amp;" sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 4 Conoco_pure-360min  0&amp;" sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 4 Conoco_pure-540min  0&amp;" sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 5 Korean_Ag-120min  0&amp;1&amp;" sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 5 Korean_Ag-240min  0&amp;1&amp;" sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 5 Korean_Ag-30min  0&amp;1&amp;1" sheetId="10" r:id="rId12"/>
-    <sheet name="Figure 5 Korean_Ag-60min  0&amp;1&amp;1" sheetId="11" r:id="rId13"/>
-    <sheet name="Figure 5 Korean_pure-120min  0&amp;" sheetId="12" r:id="rId14"/>
-    <sheet name="Figure 5 Korean_pure-240min  0&amp;" sheetId="13" r:id="rId15"/>
-    <sheet name="Figure 5 Korean_pure-360min  0&amp;" sheetId="14" r:id="rId16"/>
+    <sheet name="Figure 4_1 Conoco_pure-120min  " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4_1 Conoco_pure-360min  " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4_1 Conoco_pure-540min  " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 4_2 Conoco_Ag-120min  0&amp;" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 4_2 Conoco_Ag-240min  0&amp;" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 4_2 Conoco_Ag-360min  0&amp;" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 4_2 Conoco_Ag-540min  0&amp;" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 5_1 Korean_pure-120min  " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 5_1 Korean_pure-240min  " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 5_1 Korean_pure-360min  " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 5_2 Korean_Ag-120min  0&amp;" sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 5_2 Korean_Ag-240min  0&amp;" sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 5_2 Korean_Ag-30min  0&amp;1" sheetId="13" r:id="rId15"/>
+    <sheet name="Figure 5_2 Korean_Ag-60min  0&amp;1" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -27,13 +27,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Conoco_Ag-120min</t>
+    <t>Conoco_pure-120min</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Conoco_pure-360min</t>
+  </si>
+  <si>
+    <t>Conoco_pure-540min</t>
+  </si>
+  <si>
+    <t>Conoco_Ag-120min</t>
   </si>
   <si>
     <t>Conoco_Ag-240min</t>
@@ -45,13 +54,13 @@
     <t>Conoco_Ag-540min</t>
   </si>
   <si>
-    <t>Conoco_pure-120min</t>
+    <t>Korean_pure-120min</t>
   </si>
   <si>
-    <t>Conoco_pure-360min</t>
+    <t>Korean_pure-240min</t>
   </si>
   <si>
-    <t>Conoco_pure-540min</t>
+    <t>Korean_pure-360min</t>
   </si>
   <si>
     <t>Korean_Ag-120min</t>
@@ -64,15 +73,6 @@
   </si>
   <si>
     <t>Korean_Ag-60min</t>
-  </si>
-  <si>
-    <t>Korean_pure-120min</t>
-  </si>
-  <si>
-    <t>Korean_pure-240min</t>
-  </si>
-  <si>
-    <t>Korean_pure-360min</t>
   </si>
 </sst>
 </file>
@@ -149,7 +149,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Conoco_Ag-120min z wykresu 'Figure 4' </a:t>
+              <a:t>Izoterma adsorpcji probki Conoco_pure-120min z wykresu 'Figure 4_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -208,12 +208,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 Conoco_Ag-120min  0&amp;1&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_1 Conoco_pure-120min  '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 Conoco_Ag-120min  0&amp;1&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_1 Conoco_pure-120min  '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -298,7 +298,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="900"/>
-          <c:min val="150"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -463,7 +463,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Korean_Ag-30min z wykresu 'Figure 5' </a:t>
+              <a:t>Izoterma adsorpcji probki Korean_pure-360min z wykresu 'Figure 5_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -522,12 +522,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 Korean_Ag-30min  0&amp;1&amp;1'!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_1 Korean_pure-360min  '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 Korean_Ag-30min  0&amp;1&amp;1'!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_1 Korean_pure-360min  '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -612,7 +612,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="900"/>
-          <c:min val="100"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -777,7 +777,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Korean_Ag-60min z wykresu 'Figure 5' </a:t>
+              <a:t>Izoterma adsorpcji probki Korean_Ag-120min z wykresu 'Figure 5_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -836,12 +836,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 Korean_Ag-60min  0&amp;1&amp;1'!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_2 Korean_Ag-120min  0&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 Korean_Ag-60min  0&amp;1&amp;1'!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_2 Korean_Ag-120min  0&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1091,7 +1091,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Korean_pure-120min z wykresu 'Figure 5' </a:t>
+              <a:t>Izoterma adsorpcji probki Korean_Ag-240min z wykresu 'Figure 5_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1150,12 +1150,954 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 Korean_pure-120min  0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_2 Korean_Ag-240min  0&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 Korean_pure-120min  0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_2 Korean_Ag-240min  0&amp;'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki Korean_Ag-30min z wykresu 'Figure 5_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5_2 Korean_Ag-30min  0&amp;1'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5_2 Korean_Ag-30min  0&amp;1'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki Korean_Ag-60min z wykresu 'Figure 5_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5_2 Korean_Ag-60min  0&amp;1'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5_2 Korean_Ag-60min  0&amp;1'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki Conoco_pure-360min z wykresu 'Figure 4_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 4_1 Conoco_pure-360min  '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 4_1 Conoco_pure-360min  '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1372,7 +2314,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1405,7 +2347,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Korean_pure-240min z wykresu 'Figure 5' </a:t>
+              <a:t>Izoterma adsorpcji probki Conoco_pure-540min z wykresu 'Figure 4_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1464,12 +2406,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 Korean_pure-240min  0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_1 Conoco_pure-540min  '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 Korean_pure-240min  0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_1 Conoco_pure-540min  '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1686,7 +2628,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1719,7 +2661,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Korean_pure-360min z wykresu 'Figure 5' </a:t>
+              <a:t>Izoterma adsorpcji probki Conoco_Ag-120min z wykresu 'Figure 4_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1778,954 +2720,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 Korean_pure-360min  0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_2 Conoco_Ag-120min  0&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 Korean_pure-360min  0&amp;'!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="900"/>
-          <c:min val="200"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Conoco_Ag-240min z wykresu 'Figure 4' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 4 Conoco_Ag-240min  0&amp;1&amp;'!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 4 Conoco_Ag-240min  0&amp;1&amp;'!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="900"/>
-          <c:min val="150"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Conoco_Ag-360min z wykresu 'Figure 4' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 4 Conoco_Ag-360min  0&amp;1&amp;'!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 4 Conoco_Ag-360min  0&amp;1&amp;'!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="900"/>
-          <c:min val="150"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Conoco_Ag-540min z wykresu 'Figure 4' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 4 Conoco_Ag-540min  0&amp;1&amp;'!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 4 Conoco_Ag-540min  0&amp;1&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_2 Conoco_Ag-120min  0&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2975,7 +2975,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Conoco_pure-120min z wykresu 'Figure 4' </a:t>
+              <a:t>Izoterma adsorpcji probki Conoco_Ag-240min z wykresu 'Figure 4_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3034,12 +3034,954 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 Conoco_pure-120min  0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_2 Conoco_Ag-240min  0&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 Conoco_pure-120min  0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_2 Conoco_Ag-240min  0&amp;'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki Conoco_Ag-360min z wykresu 'Figure 4_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 4_2 Conoco_Ag-360min  0&amp;'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 4_2 Conoco_Ag-360min  0&amp;'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki Conoco_Ag-540min z wykresu 'Figure 4_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 4_2 Conoco_Ag-540min  0&amp;'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 4_2 Conoco_Ag-540min  0&amp;'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki Korean_pure-120min z wykresu 'Figure 5_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5_1 Korean_pure-120min  '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5_1 Korean_pure-120min  '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3256,7 +4198,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3289,7 +4231,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Conoco_pure-360min z wykresu 'Figure 4' </a:t>
+              <a:t>Izoterma adsorpcji probki Korean_pure-240min z wykresu 'Figure 5_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3348,12 +4290,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 Conoco_pure-360min  0&amp;'!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_1 Korean_pure-240min  '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 Conoco_pure-360min  0&amp;'!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_1 Korean_pure-240min  '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3439,948 +4381,6 @@
           <c:orientation val="minMax"/>
           <c:max val="900"/>
           <c:min val="200"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Conoco_pure-540min z wykresu 'Figure 4' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 4 Conoco_pure-540min  0&amp;'!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 4 Conoco_pure-540min  0&amp;'!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="900"/>
-          <c:min val="200"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Korean_Ag-120min z wykresu 'Figure 5' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 5 Korean_Ag-120min  0&amp;1&amp;'!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 5 Korean_Ag-120min  0&amp;1&amp;'!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="900"/>
-          <c:min val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Korean_Ag-240min z wykresu 'Figure 5' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 5 Korean_Ag-240min  0&amp;1&amp;'!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 5 Korean_Ag-240min  0&amp;1&amp;'!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="900"/>
-          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -13153,6 +13153,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0103</v>
+      </c>
+      <c r="B3" s="0">
+        <v>267.1766</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0308</v>
+      </c>
+      <c r="B4" s="0">
+        <v>293.7179</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0617</v>
+      </c>
+      <c r="B5" s="0">
+        <v>311.3939</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.081</v>
+      </c>
+      <c r="B6" s="0">
+        <v>318.6656</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.102</v>
+      </c>
+      <c r="B7" s="0">
+        <v>325.4144</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1225</v>
+      </c>
+      <c r="B8" s="0">
+        <v>330.0806</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1424</v>
+      </c>
+      <c r="B9" s="0">
+        <v>334.2266</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1641</v>
+      </c>
+      <c r="B10" s="0">
+        <v>336.8082</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1839</v>
+      </c>
+      <c r="B11" s="0">
+        <v>339.9125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2025</v>
+      </c>
+      <c r="B12" s="0">
+        <v>341.9765</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2503</v>
+      </c>
+      <c r="B13" s="0">
+        <v>346.6142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3018</v>
+      </c>
+      <c r="B14" s="0">
+        <v>350.2064</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3545</v>
+      </c>
+      <c r="B15" s="0">
+        <v>352.2348</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4004</v>
+      </c>
+      <c r="B16" s="0">
+        <v>354.2703</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4506</v>
+      </c>
+      <c r="B17" s="0">
+        <v>355.7805</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5009</v>
+      </c>
+      <c r="B18" s="0">
+        <v>356.249</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5511</v>
+      </c>
+      <c r="B19" s="0">
+        <v>357.7592</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.6007</v>
+      </c>
+      <c r="B20" s="0">
+        <v>357.7075</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.651</v>
+      </c>
+      <c r="B21" s="0">
+        <v>357.6551</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.7019</v>
+      </c>
+      <c r="B22" s="0">
+        <v>357.6021</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7515</v>
+      </c>
+      <c r="B23" s="0">
+        <v>357.5504</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.8011</v>
+      </c>
+      <c r="B24" s="0">
+        <v>356.9779</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8321</v>
+      </c>
+      <c r="B25" s="0">
+        <v>357.4664</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8514</v>
+      </c>
+      <c r="B26" s="0">
+        <v>356.9256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8762</v>
+      </c>
+      <c r="B27" s="0">
+        <v>357.4206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.9128</v>
+      </c>
+      <c r="B28" s="0">
+        <v>357.9033</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9512</v>
+      </c>
+      <c r="B29" s="0">
+        <v>357.3424</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9891</v>
+      </c>
+      <c r="B30" s="0">
+        <v>357.8238</v>
+      </c>
+    </row>
+    <row r="31"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13161,7 +13413,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -13174,242 +13426,242 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0104</v>
+        <v>0.0087</v>
       </c>
       <c r="B3" s="0">
-        <v>160.2144</v>
+        <v>438.2061</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0305</v>
+        <v>0.0275</v>
       </c>
       <c r="B4" s="0">
-        <v>171.9525</v>
+        <v>509.3783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0579</v>
+        <v>0.0575</v>
       </c>
       <c r="B5" s="0">
-        <v>178.0595</v>
+        <v>573.0303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0816</v>
+        <v>0.0764</v>
       </c>
       <c r="B6" s="0">
-        <v>181.1027</v>
+        <v>604.3259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1011</v>
+        <v>0.0976</v>
       </c>
       <c r="B7" s="0">
-        <v>183.639</v>
+        <v>635.0874</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.123</v>
+        <v>0.1176</v>
       </c>
       <c r="B8" s="0">
-        <v>185.1503</v>
+        <v>661.5355</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1413</v>
+        <v>0.1393</v>
       </c>
       <c r="B9" s="0">
-        <v>187.1766</v>
+        <v>685.2928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.162</v>
+        <v>0.1599</v>
       </c>
       <c r="B10" s="0">
-        <v>188.6892</v>
+        <v>705.2757</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1815</v>
+        <v>0.1805</v>
       </c>
       <c r="B11" s="0">
-        <v>189.1805</v>
+        <v>723.103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2022</v>
+        <v>0.2034</v>
       </c>
       <c r="B12" s="0">
-        <v>191.2043</v>
+        <v>737.702</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2503</v>
+        <v>0.2497</v>
       </c>
       <c r="B13" s="0">
-        <v>193.2001</v>
+        <v>760.4345</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3021</v>
+        <v>0.3099</v>
       </c>
       <c r="B14" s="0">
-        <v>194.6809</v>
+        <v>777.2696</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.352</v>
+        <v>0.3646</v>
       </c>
       <c r="B15" s="0">
-        <v>196.1636</v>
+        <v>786.0095</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4001</v>
+        <v>0.4087</v>
       </c>
       <c r="B16" s="0">
-        <v>197.1369</v>
+        <v>789.8767</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4513</v>
+        <v>0.4478</v>
       </c>
       <c r="B17" s="0">
-        <v>197.5958</v>
+        <v>793.1942</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5006</v>
+        <v>0.4986</v>
       </c>
       <c r="B18" s="0">
-        <v>199.5904</v>
+        <v>797.0758</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5512</v>
+        <v>0.5483</v>
       </c>
       <c r="B19" s="0">
-        <v>198.005</v>
+        <v>799.3384</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5999</v>
+        <v>0.5985</v>
       </c>
       <c r="B20" s="0">
-        <v>197.9551</v>
+        <v>801.0633</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6504</v>
+        <v>0.6482</v>
       </c>
       <c r="B21" s="0">
-        <v>197.9034</v>
+        <v>802.7871</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7119</v>
+        <v>0.6985</v>
       </c>
       <c r="B22" s="0">
-        <v>197.8406</v>
+        <v>804.512</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7625</v>
+        <v>0.7493</v>
       </c>
       <c r="B23" s="0">
-        <v>197.7889</v>
+        <v>805.6993</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8118</v>
+        <v>0.7984</v>
       </c>
       <c r="B24" s="0">
-        <v>197.7384</v>
+        <v>807.9607</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8313</v>
+        <v>0.8191</v>
       </c>
       <c r="B25" s="0">
-        <v>198.2298</v>
+        <v>808.0052</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8508</v>
+        <v>0.8498</v>
       </c>
       <c r="B26" s="0">
-        <v>198.2098</v>
+        <v>808.6103</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8752</v>
+        <v>0.8738</v>
       </c>
       <c r="B27" s="0">
-        <v>197.6737</v>
+        <v>809.2009</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8995</v>
+        <v>0.8989</v>
       </c>
       <c r="B28" s="0">
-        <v>198.6713</v>
+        <v>810.3328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9257</v>
+        <v>0.9235</v>
       </c>
       <c r="B29" s="0">
-        <v>197.622</v>
+        <v>810.3858</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9507</v>
+        <v>0.9497</v>
       </c>
       <c r="B30" s="0">
-        <v>198.1077</v>
+        <v>812.5978</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9762</v>
+        <v>0.9765</v>
       </c>
       <c r="B31" s="0">
-        <v>200.1265</v>
+        <v>814.2722</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9994</v>
+        <v>0.9988</v>
       </c>
       <c r="B32" s="0">
-        <v>200.1029</v>
+        <v>815.937</v>
       </c>
     </row>
     <row r="33"/>
@@ -13419,7 +13671,559 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.009</v>
+      </c>
+      <c r="B3" s="0">
+        <v>282.6558</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0303</v>
+      </c>
+      <c r="B4" s="0">
+        <v>321.6802</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0595</v>
+      </c>
+      <c r="B5" s="0">
+        <v>350.4065</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.082</v>
+      </c>
+      <c r="B6" s="0">
+        <v>367.2087</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0994</v>
+      </c>
+      <c r="B7" s="0">
+        <v>379.1328</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1202</v>
+      </c>
+      <c r="B8" s="0">
+        <v>391.5989</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1404</v>
+      </c>
+      <c r="B9" s="0">
+        <v>401.897</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1611</v>
+      </c>
+      <c r="B10" s="0">
+        <v>412.1951</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1825</v>
+      </c>
+      <c r="B11" s="0">
+        <v>421.4092</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2038</v>
+      </c>
+      <c r="B12" s="0">
+        <v>430.0813</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2499</v>
+      </c>
+      <c r="B13" s="0">
+        <v>445.2575</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3071</v>
+      </c>
+      <c r="B14" s="0">
+        <v>460.4336</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.361</v>
+      </c>
+      <c r="B15" s="0">
+        <v>471.2737</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3998</v>
+      </c>
+      <c r="B16" s="0">
+        <v>476.1518</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4486</v>
+      </c>
+      <c r="B17" s="0">
+        <v>482.1138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4997</v>
+      </c>
+      <c r="B18" s="0">
+        <v>485.9079</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5486</v>
+      </c>
+      <c r="B19" s="0">
+        <v>487.5339</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5991</v>
+      </c>
+      <c r="B20" s="0">
+        <v>488.0759</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6496</v>
+      </c>
+      <c r="B21" s="0">
+        <v>490.2439</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.699</v>
+      </c>
+      <c r="B22" s="0">
+        <v>490.2439</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7496</v>
+      </c>
+      <c r="B23" s="0">
+        <v>490.7859</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.7984</v>
+      </c>
+      <c r="B24" s="0">
+        <v>491.3279</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8192</v>
+      </c>
+      <c r="B25" s="0">
+        <v>490.7859</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8478</v>
+      </c>
+      <c r="B26" s="0">
+        <v>492.4119</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8737</v>
+      </c>
+      <c r="B27" s="0">
+        <v>492.4119</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.8989</v>
+      </c>
+      <c r="B28" s="0">
+        <v>492.9539</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9236</v>
+      </c>
+      <c r="B29" s="0">
+        <v>492.4119</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9371</v>
+      </c>
+      <c r="B30" s="0">
+        <v>494.0379</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9495</v>
+      </c>
+      <c r="B31" s="0">
+        <v>493.4959</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9629</v>
+      </c>
+      <c r="B32" s="0">
+        <v>494.0379</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.9775</v>
+      </c>
+      <c r="B33" s="0">
+        <v>495.122</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>1.0011</v>
+      </c>
+      <c r="B34" s="0">
+        <v>494.5799</v>
+      </c>
+    </row>
+    <row r="35"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.009</v>
+      </c>
+      <c r="B3" s="0">
+        <v>413.2791</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0286</v>
+      </c>
+      <c r="B4" s="0">
+        <v>480.4878</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0595</v>
+      </c>
+      <c r="B5" s="0">
+        <v>540.6504</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.078</v>
+      </c>
+      <c r="B6" s="0">
+        <v>572.6287</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0983</v>
+      </c>
+      <c r="B7" s="0">
+        <v>603.523</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1185</v>
+      </c>
+      <c r="B8" s="0">
+        <v>632.2493</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1387</v>
+      </c>
+      <c r="B9" s="0">
+        <v>658.2656</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1595</v>
+      </c>
+      <c r="B10" s="0">
+        <v>681.5718</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1802</v>
+      </c>
+      <c r="B11" s="0">
+        <v>703.794</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.201</v>
+      </c>
+      <c r="B12" s="0">
+        <v>724.3902</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2476</v>
+      </c>
+      <c r="B13" s="0">
+        <v>760.1626</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3111</v>
+      </c>
+      <c r="B14" s="0">
+        <v>795.935</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3706</v>
+      </c>
+      <c r="B15" s="0">
+        <v>815.4472</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4076</v>
+      </c>
+      <c r="B16" s="0">
+        <v>822.4932</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4481</v>
+      </c>
+      <c r="B17" s="0">
+        <v>828.4553</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4986</v>
+      </c>
+      <c r="B18" s="0">
+        <v>834.9593</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5497</v>
+      </c>
+      <c r="B19" s="0">
+        <v>838.7534</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.6002</v>
+      </c>
+      <c r="B20" s="0">
+        <v>842.0054</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6496</v>
+      </c>
+      <c r="B21" s="0">
+        <v>844.7154</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.7002</v>
+      </c>
+      <c r="B22" s="0">
+        <v>847.4255</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7507</v>
+      </c>
+      <c r="B23" s="0">
+        <v>850.1355</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.8001</v>
+      </c>
+      <c r="B24" s="0">
+        <v>851.2195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8203</v>
+      </c>
+      <c r="B25" s="0">
+        <v>852.3035</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8501</v>
+      </c>
+      <c r="B26" s="0">
+        <v>853.9295</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8748</v>
+      </c>
+      <c r="B27" s="0">
+        <v>855.0136</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.9006</v>
+      </c>
+      <c r="B28" s="0">
+        <v>856.0976</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9248</v>
+      </c>
+      <c r="B29" s="0">
+        <v>856.0976</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9506</v>
+      </c>
+      <c r="B30" s="0">
+        <v>858.2656</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9759</v>
+      </c>
+      <c r="B31" s="0">
+        <v>859.8916</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9893</v>
+      </c>
+      <c r="B32" s="0">
+        <v>864.7696</v>
+      </c>
+    </row>
+    <row r="33"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B42"/>
   <sheetViews>
@@ -13429,7 +14233,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -13759,7 +14563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B39"/>
   <sheetViews>
@@ -13769,7 +14573,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -14075,7 +14879,275 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0089</v>
+      </c>
+      <c r="B3" s="0">
+        <v>365.6156</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0299</v>
+      </c>
+      <c r="B4" s="0">
+        <v>420.8021</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.059</v>
+      </c>
+      <c r="B5" s="0">
+        <v>469.7301</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0782</v>
+      </c>
+      <c r="B6" s="0">
+        <v>494.1893</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.098</v>
+      </c>
+      <c r="B7" s="0">
+        <v>515.5228</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1203</v>
+      </c>
+      <c r="B8" s="0">
+        <v>536.8538</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1413</v>
+      </c>
+      <c r="B9" s="0">
+        <v>555.061</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1624</v>
+      </c>
+      <c r="B10" s="0">
+        <v>570.1432</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1847</v>
+      </c>
+      <c r="B11" s="0">
+        <v>583.6617</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2089</v>
+      </c>
+      <c r="B12" s="0">
+        <v>594.574</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2548</v>
+      </c>
+      <c r="B13" s="0">
+        <v>611.1929</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.318</v>
+      </c>
+      <c r="B14" s="0">
+        <v>626.2311</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3782</v>
+      </c>
+      <c r="B15" s="0">
+        <v>635.0226</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4079</v>
+      </c>
+      <c r="B16" s="0">
+        <v>637.5958</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4483</v>
+      </c>
+      <c r="B17" s="0">
+        <v>641.1996</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4991</v>
+      </c>
+      <c r="B18" s="0">
+        <v>645.3133</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5487</v>
+      </c>
+      <c r="B19" s="0">
+        <v>645.7825</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.599</v>
+      </c>
+      <c r="B20" s="0">
+        <v>648.3343</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6486</v>
+      </c>
+      <c r="B21" s="0">
+        <v>650.3659</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.6989</v>
+      </c>
+      <c r="B22" s="0">
+        <v>651.3553</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7485</v>
+      </c>
+      <c r="B23" s="0">
+        <v>652.8661</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.7981</v>
+      </c>
+      <c r="B24" s="0">
+        <v>652.8144</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8186</v>
+      </c>
+      <c r="B25" s="0">
+        <v>653.3139</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8484</v>
+      </c>
+      <c r="B26" s="0">
+        <v>654.3245</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8738</v>
+      </c>
+      <c r="B27" s="0">
+        <v>655.3397</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.8986</v>
+      </c>
+      <c r="B28" s="0">
+        <v>655.3139</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9228</v>
+      </c>
+      <c r="B29" s="0">
+        <v>655.2887</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9495</v>
+      </c>
+      <c r="B30" s="0">
+        <v>655.2609</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9762</v>
+      </c>
+      <c r="B31" s="0">
+        <v>656.2748</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.991</v>
+      </c>
+      <c r="B32" s="0">
+        <v>657.8217</v>
+      </c>
+    </row>
+    <row r="33"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -14085,7 +15157,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -14098,234 +15170,234 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0091</v>
+        <v>0.0101</v>
       </c>
       <c r="B3" s="0">
-        <v>258.2224</v>
+        <v>420.8228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0292</v>
+        <v>0.0298</v>
       </c>
       <c r="B4" s="0">
-        <v>280.3595</v>
+        <v>485.9064</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0593</v>
+        <v>0.0607</v>
       </c>
       <c r="B5" s="0">
-        <v>293.3575</v>
+        <v>543.6867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.081</v>
+        <v>0.0774</v>
       </c>
       <c r="B6" s="0">
-        <v>298.2543</v>
+        <v>566.5859</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1023</v>
+        <v>0.0997</v>
       </c>
       <c r="B7" s="0">
-        <v>301.5332</v>
+        <v>592.6044</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1235</v>
+        <v>0.1214</v>
       </c>
       <c r="B8" s="0">
-        <v>303.1956</v>
+        <v>610.811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.143</v>
+        <v>0.1431</v>
       </c>
       <c r="B9" s="0">
-        <v>305.9321</v>
+        <v>626.9342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.162</v>
+        <v>0.1648</v>
       </c>
       <c r="B10" s="0">
-        <v>307.5896</v>
+        <v>638.8908</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1826</v>
+        <v>0.1883</v>
       </c>
       <c r="B11" s="0">
-        <v>309.2508</v>
+        <v>648.7621</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2005</v>
+        <v>0.2119</v>
       </c>
       <c r="B12" s="0">
-        <v>309.8282</v>
+        <v>656.55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2502</v>
+        <v>0.2565</v>
       </c>
       <c r="B13" s="0">
-        <v>312.0908</v>
+        <v>666.9202</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.301</v>
+        <v>0.3099</v>
       </c>
       <c r="B14" s="0">
-        <v>313.8169</v>
+        <v>673.6355</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3529</v>
+        <v>0.362</v>
       </c>
       <c r="B15" s="0">
-        <v>315.5454</v>
+        <v>679.3104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3993</v>
+        <v>0.3992</v>
       </c>
       <c r="B16" s="0">
-        <v>315.6453</v>
+        <v>682.3966</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4512</v>
+        <v>0.45</v>
       </c>
       <c r="B17" s="0">
-        <v>316.2961</v>
+        <v>684.9478</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4998</v>
+        <v>0.5003</v>
       </c>
       <c r="B18" s="0">
-        <v>318.5563</v>
+        <v>686.9788</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5506</v>
+        <v>0.5505</v>
       </c>
       <c r="B19" s="0">
-        <v>318.127</v>
+        <v>689.5306</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5997</v>
+        <v>0.5995</v>
       </c>
       <c r="B20" s="0">
-        <v>319.3106</v>
+        <v>691.0421</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6494</v>
+        <v>0.6504</v>
       </c>
       <c r="B21" s="0">
-        <v>319.4177</v>
+        <v>692.5516</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7008</v>
+        <v>0.6994</v>
       </c>
       <c r="B22" s="0">
-        <v>318.4507</v>
+        <v>694.063</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7499</v>
+        <v>0.7503</v>
       </c>
       <c r="B23" s="0">
-        <v>319.0955</v>
+        <v>695.0517</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8119</v>
+        <v>0.8005</v>
       </c>
       <c r="B24" s="0">
-        <v>319.2291</v>
+        <v>695.5202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8314</v>
+        <v>0.8191</v>
       </c>
       <c r="B25" s="0">
-        <v>319.2712</v>
+        <v>695.5008</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8504</v>
+        <v>0.8489</v>
       </c>
       <c r="B26" s="0">
-        <v>319.3121</v>
+        <v>697.0323</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8755</v>
+        <v>0.8743</v>
       </c>
       <c r="B27" s="0">
-        <v>319.9052</v>
+        <v>697.0058</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9107</v>
+        <v>0.8998</v>
       </c>
       <c r="B28" s="0">
-        <v>319.4421</v>
+        <v>696.9793</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9252</v>
+        <v>0.9233</v>
       </c>
       <c r="B29" s="0">
-        <v>319.4734</v>
+        <v>698.5173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9498</v>
+        <v>0.95</v>
       </c>
       <c r="B30" s="0">
-        <v>320.6041</v>
+        <v>698.4895</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9883</v>
+        <v>0.9761</v>
       </c>
       <c r="B31" s="0">
-        <v>319.6094</v>
+        <v>700.0248</v>
       </c>
     </row>
     <row r="32"/>
@@ -14335,7 +15407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -14345,7 +15417,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -14358,242 +15430,242 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0089</v>
+        <v>0.0104</v>
       </c>
       <c r="B3" s="0">
-        <v>365.4582</v>
+        <v>160.2144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0283</v>
+        <v>0.0305</v>
       </c>
       <c r="B4" s="0">
-        <v>412.9211</v>
+        <v>171.9525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0567</v>
+        <v>0.0579</v>
       </c>
       <c r="B5" s="0">
-        <v>449.6259</v>
+        <v>178.0595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.079</v>
+        <v>0.0816</v>
       </c>
       <c r="B6" s="0">
-        <v>466.918</v>
+        <v>181.1027</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1013</v>
+        <v>0.1011</v>
       </c>
       <c r="B7" s="0">
-        <v>479.3602</v>
+        <v>183.639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1236</v>
+        <v>0.123</v>
       </c>
       <c r="B8" s="0">
-        <v>488.5692</v>
+        <v>185.1503</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1459</v>
+        <v>0.1413</v>
       </c>
       <c r="B9" s="0">
-        <v>495.0838</v>
+        <v>187.1766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1677</v>
+        <v>0.162</v>
       </c>
       <c r="B10" s="0">
-        <v>500.5195</v>
+        <v>188.6892</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1894</v>
+        <v>0.1815</v>
       </c>
       <c r="B11" s="0">
-        <v>503.7997</v>
+        <v>189.1805</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2073</v>
+        <v>0.2022</v>
       </c>
       <c r="B12" s="0">
-        <v>506.5325</v>
+        <v>191.2043</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2497</v>
+        <v>0.2503</v>
       </c>
       <c r="B13" s="0">
-        <v>510.3961</v>
+        <v>193.2001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3028</v>
+        <v>0.3021</v>
       </c>
       <c r="B14" s="0">
-        <v>513.2048</v>
+        <v>194.6809</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3536</v>
+        <v>0.352</v>
       </c>
       <c r="B15" s="0">
-        <v>517.0865</v>
+        <v>196.1636</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3982</v>
+        <v>0.4001</v>
       </c>
       <c r="B16" s="0">
-        <v>518.7994</v>
+        <v>197.1369</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4496</v>
+        <v>0.4513</v>
       </c>
       <c r="B17" s="0">
-        <v>520.5267</v>
+        <v>197.5958</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4998</v>
+        <v>0.5006</v>
       </c>
       <c r="B18" s="0">
-        <v>522.7905</v>
+        <v>199.5904</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.549</v>
+        <v>0.5512</v>
       </c>
       <c r="B19" s="0">
-        <v>524.513</v>
+        <v>198.005</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5998</v>
+        <v>0.5999</v>
       </c>
       <c r="B20" s="0">
-        <v>524.6226</v>
+        <v>197.9551</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6495</v>
+        <v>0.6504</v>
       </c>
       <c r="B21" s="0">
-        <v>525.8074</v>
+        <v>197.9034</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7003</v>
+        <v>0.7119</v>
       </c>
       <c r="B22" s="0">
-        <v>526.9947</v>
+        <v>197.8406</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7494</v>
+        <v>0.7625</v>
       </c>
       <c r="B23" s="0">
-        <v>527.1006</v>
+        <v>197.7889</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7997</v>
+        <v>0.8118</v>
       </c>
       <c r="B24" s="0">
-        <v>527.2089</v>
+        <v>197.7384</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8186</v>
+        <v>0.8313</v>
       </c>
       <c r="B25" s="0">
-        <v>527.2498</v>
+        <v>198.2298</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8488</v>
+        <v>0.8508</v>
       </c>
       <c r="B26" s="0">
-        <v>527.8537</v>
+        <v>198.2098</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.875</v>
+        <v>0.8752</v>
       </c>
       <c r="B27" s="0">
-        <v>527.9103</v>
+        <v>197.6737</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9002</v>
+        <v>0.8995</v>
       </c>
       <c r="B28" s="0">
-        <v>528.5033</v>
+        <v>198.6713</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9247</v>
+        <v>0.9257</v>
       </c>
       <c r="B29" s="0">
-        <v>529.0951</v>
+        <v>197.622</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9498</v>
+        <v>0.9507</v>
       </c>
       <c r="B30" s="0">
-        <v>528.6104</v>
+        <v>198.1077</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.975</v>
+        <v>0.9762</v>
       </c>
       <c r="B31" s="0">
-        <v>530.2812</v>
+        <v>200.1265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9956</v>
+        <v>0.9994</v>
       </c>
       <c r="B32" s="0">
-        <v>531.4035</v>
+        <v>200.1029</v>
       </c>
     </row>
     <row r="33"/>
@@ -14603,275 +15675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0087</v>
-      </c>
-      <c r="B3" s="0">
-        <v>438.2061</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0275</v>
-      </c>
-      <c r="B4" s="0">
-        <v>509.3783</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0575</v>
-      </c>
-      <c r="B5" s="0">
-        <v>573.0303</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0764</v>
-      </c>
-      <c r="B6" s="0">
-        <v>604.3259</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0976</v>
-      </c>
-      <c r="B7" s="0">
-        <v>635.0874</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1176</v>
-      </c>
-      <c r="B8" s="0">
-        <v>661.5355</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1393</v>
-      </c>
-      <c r="B9" s="0">
-        <v>685.2928</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1599</v>
-      </c>
-      <c r="B10" s="0">
-        <v>705.2757</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1805</v>
-      </c>
-      <c r="B11" s="0">
-        <v>723.103</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2034</v>
-      </c>
-      <c r="B12" s="0">
-        <v>737.702</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2497</v>
-      </c>
-      <c r="B13" s="0">
-        <v>760.4345</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.3099</v>
-      </c>
-      <c r="B14" s="0">
-        <v>777.2696</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3646</v>
-      </c>
-      <c r="B15" s="0">
-        <v>786.0095</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.4087</v>
-      </c>
-      <c r="B16" s="0">
-        <v>789.8767</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4478</v>
-      </c>
-      <c r="B17" s="0">
-        <v>793.1942</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4986</v>
-      </c>
-      <c r="B18" s="0">
-        <v>797.0758</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5483</v>
-      </c>
-      <c r="B19" s="0">
-        <v>799.3384</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.5985</v>
-      </c>
-      <c r="B20" s="0">
-        <v>801.0633</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.6482</v>
-      </c>
-      <c r="B21" s="0">
-        <v>802.7871</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.6985</v>
-      </c>
-      <c r="B22" s="0">
-        <v>804.512</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.7493</v>
-      </c>
-      <c r="B23" s="0">
-        <v>805.6993</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.7984</v>
-      </c>
-      <c r="B24" s="0">
-        <v>807.9607</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.8191</v>
-      </c>
-      <c r="B25" s="0">
-        <v>808.0052</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.8498</v>
-      </c>
-      <c r="B26" s="0">
-        <v>808.6103</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.8738</v>
-      </c>
-      <c r="B27" s="0">
-        <v>809.2009</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.8989</v>
-      </c>
-      <c r="B28" s="0">
-        <v>810.3328</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.9235</v>
-      </c>
-      <c r="B29" s="0">
-        <v>810.3858</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9497</v>
-      </c>
-      <c r="B30" s="0">
-        <v>812.5978</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.9765</v>
-      </c>
-      <c r="B31" s="0">
-        <v>814.2722</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.9988</v>
-      </c>
-      <c r="B32" s="0">
-        <v>815.937</v>
-      </c>
-    </row>
-    <row r="33"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -14881,7 +15685,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -15131,7 +15935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -15141,7 +15945,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -15377,786 +16181,6 @@
       </c>
     </row>
     <row r="31"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0091</v>
-      </c>
-      <c r="B3" s="0">
-        <v>377.4958</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0305</v>
-      </c>
-      <c r="B4" s="0">
-        <v>441.8912</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0615</v>
-      </c>
-      <c r="B5" s="0">
-        <v>496.0516</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0847</v>
-      </c>
-      <c r="B6" s="0">
-        <v>531.304</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0999</v>
-      </c>
-      <c r="B7" s="0">
-        <v>552.2496</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1194</v>
-      </c>
-      <c r="B8" s="0">
-        <v>578.8146</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1395</v>
-      </c>
-      <c r="B9" s="0">
-        <v>603.3339</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1596</v>
-      </c>
-      <c r="B10" s="0">
-        <v>628.3645</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.179</v>
-      </c>
-      <c r="B11" s="0">
-        <v>651.3507</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.1998</v>
-      </c>
-      <c r="B12" s="0">
-        <v>673.3131</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2485</v>
-      </c>
-      <c r="B13" s="0">
-        <v>721.8318</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.3045</v>
-      </c>
-      <c r="B14" s="0">
-        <v>769.8318</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3514</v>
-      </c>
-      <c r="B15" s="0">
-        <v>801.4812</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3995</v>
-      </c>
-      <c r="B16" s="0">
-        <v>825.9719</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4507</v>
-      </c>
-      <c r="B17" s="0">
-        <v>840.7457</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B18" s="0">
-        <v>849.8978</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5499</v>
-      </c>
-      <c r="B19" s="0">
-        <v>855.4704</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.6005</v>
-      </c>
-      <c r="B20" s="0">
-        <v>859.5087</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.6498</v>
-      </c>
-      <c r="B21" s="0">
-        <v>862.5257</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.7004</v>
-      </c>
-      <c r="B22" s="0">
-        <v>864.0078</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.7509</v>
-      </c>
-      <c r="B23" s="0">
-        <v>865.4899</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.8009</v>
-      </c>
-      <c r="B24" s="0">
-        <v>867.4838</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.821</v>
-      </c>
-      <c r="B25" s="0">
-        <v>867.4632</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.8508</v>
-      </c>
-      <c r="B26" s="0">
-        <v>868.9665</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.8758</v>
-      </c>
-      <c r="B27" s="0">
-        <v>869.9634</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.9007</v>
-      </c>
-      <c r="B28" s="0">
-        <v>870.4492</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.9257</v>
-      </c>
-      <c r="B29" s="0">
-        <v>870.9349</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9519</v>
-      </c>
-      <c r="B30" s="0">
-        <v>871.9306</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.9762</v>
-      </c>
-      <c r="B31" s="0">
-        <v>873.4394</v>
-      </c>
-    </row>
-    <row r="32"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0103</v>
-      </c>
-      <c r="B3" s="0">
-        <v>267.1766</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0308</v>
-      </c>
-      <c r="B4" s="0">
-        <v>293.7179</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0617</v>
-      </c>
-      <c r="B5" s="0">
-        <v>311.3939</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.081</v>
-      </c>
-      <c r="B6" s="0">
-        <v>318.6656</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.102</v>
-      </c>
-      <c r="B7" s="0">
-        <v>325.4144</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1225</v>
-      </c>
-      <c r="B8" s="0">
-        <v>330.0806</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1424</v>
-      </c>
-      <c r="B9" s="0">
-        <v>334.2266</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1641</v>
-      </c>
-      <c r="B10" s="0">
-        <v>336.8082</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1839</v>
-      </c>
-      <c r="B11" s="0">
-        <v>339.9125</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2025</v>
-      </c>
-      <c r="B12" s="0">
-        <v>341.9765</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2503</v>
-      </c>
-      <c r="B13" s="0">
-        <v>346.6142</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.3018</v>
-      </c>
-      <c r="B14" s="0">
-        <v>350.2064</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3545</v>
-      </c>
-      <c r="B15" s="0">
-        <v>352.2348</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.4004</v>
-      </c>
-      <c r="B16" s="0">
-        <v>354.2703</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4506</v>
-      </c>
-      <c r="B17" s="0">
-        <v>355.7805</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.5009</v>
-      </c>
-      <c r="B18" s="0">
-        <v>356.249</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5511</v>
-      </c>
-      <c r="B19" s="0">
-        <v>357.7592</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.6007</v>
-      </c>
-      <c r="B20" s="0">
-        <v>357.7075</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.651</v>
-      </c>
-      <c r="B21" s="0">
-        <v>357.6551</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.7019</v>
-      </c>
-      <c r="B22" s="0">
-        <v>357.6021</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.7515</v>
-      </c>
-      <c r="B23" s="0">
-        <v>357.5504</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.8011</v>
-      </c>
-      <c r="B24" s="0">
-        <v>356.9779</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.8321</v>
-      </c>
-      <c r="B25" s="0">
-        <v>357.4664</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.8514</v>
-      </c>
-      <c r="B26" s="0">
-        <v>356.9256</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.8762</v>
-      </c>
-      <c r="B27" s="0">
-        <v>357.4206</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.9128</v>
-      </c>
-      <c r="B28" s="0">
-        <v>357.9033</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.9512</v>
-      </c>
-      <c r="B29" s="0">
-        <v>357.3424</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9891</v>
-      </c>
-      <c r="B30" s="0">
-        <v>357.8238</v>
-      </c>
-    </row>
-    <row r="31"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0089</v>
-      </c>
-      <c r="B3" s="0">
-        <v>365.6156</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0299</v>
-      </c>
-      <c r="B4" s="0">
-        <v>420.8021</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.059</v>
-      </c>
-      <c r="B5" s="0">
-        <v>469.7301</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0782</v>
-      </c>
-      <c r="B6" s="0">
-        <v>494.1893</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.098</v>
-      </c>
-      <c r="B7" s="0">
-        <v>515.5228</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1203</v>
-      </c>
-      <c r="B8" s="0">
-        <v>536.8538</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1413</v>
-      </c>
-      <c r="B9" s="0">
-        <v>555.061</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1624</v>
-      </c>
-      <c r="B10" s="0">
-        <v>570.1432</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1847</v>
-      </c>
-      <c r="B11" s="0">
-        <v>583.6617</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2089</v>
-      </c>
-      <c r="B12" s="0">
-        <v>594.574</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2548</v>
-      </c>
-      <c r="B13" s="0">
-        <v>611.1929</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.318</v>
-      </c>
-      <c r="B14" s="0">
-        <v>626.2311</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3782</v>
-      </c>
-      <c r="B15" s="0">
-        <v>635.0226</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.4079</v>
-      </c>
-      <c r="B16" s="0">
-        <v>637.5958</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4483</v>
-      </c>
-      <c r="B17" s="0">
-        <v>641.1996</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4991</v>
-      </c>
-      <c r="B18" s="0">
-        <v>645.3133</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5487</v>
-      </c>
-      <c r="B19" s="0">
-        <v>645.7825</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.599</v>
-      </c>
-      <c r="B20" s="0">
-        <v>648.3343</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.6486</v>
-      </c>
-      <c r="B21" s="0">
-        <v>650.3659</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.6989</v>
-      </c>
-      <c r="B22" s="0">
-        <v>651.3553</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.7485</v>
-      </c>
-      <c r="B23" s="0">
-        <v>652.8661</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.7981</v>
-      </c>
-      <c r="B24" s="0">
-        <v>652.8144</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.8186</v>
-      </c>
-      <c r="B25" s="0">
-        <v>653.3139</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.8484</v>
-      </c>
-      <c r="B26" s="0">
-        <v>654.3245</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.8738</v>
-      </c>
-      <c r="B27" s="0">
-        <v>655.3397</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.8986</v>
-      </c>
-      <c r="B28" s="0">
-        <v>655.3139</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.9228</v>
-      </c>
-      <c r="B29" s="0">
-        <v>655.2887</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9495</v>
-      </c>
-      <c r="B30" s="0">
-        <v>655.2609</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.9762</v>
-      </c>
-      <c r="B31" s="0">
-        <v>656.2748</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.991</v>
-      </c>
-      <c r="B32" s="0">
-        <v>657.8217</v>
-      </c>
-    </row>
-    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -16186,234 +16210,234 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0101</v>
+        <v>0.0091</v>
       </c>
       <c r="B3" s="0">
-        <v>420.8228</v>
+        <v>377.4958</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0298</v>
+        <v>0.0305</v>
       </c>
       <c r="B4" s="0">
-        <v>485.9064</v>
+        <v>441.8912</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0607</v>
+        <v>0.0615</v>
       </c>
       <c r="B5" s="0">
-        <v>543.6867</v>
+        <v>496.0516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0774</v>
+        <v>0.0847</v>
       </c>
       <c r="B6" s="0">
-        <v>566.5859</v>
+        <v>531.304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0997</v>
+        <v>0.0999</v>
       </c>
       <c r="B7" s="0">
-        <v>592.6044</v>
+        <v>552.2496</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1214</v>
+        <v>0.1194</v>
       </c>
       <c r="B8" s="0">
-        <v>610.811</v>
+        <v>578.8146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1431</v>
+        <v>0.1395</v>
       </c>
       <c r="B9" s="0">
-        <v>626.9342</v>
+        <v>603.3339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1648</v>
+        <v>0.1596</v>
       </c>
       <c r="B10" s="0">
-        <v>638.8908</v>
+        <v>628.3645</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1883</v>
+        <v>0.179</v>
       </c>
       <c r="B11" s="0">
-        <v>648.7621</v>
+        <v>651.3507</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2119</v>
+        <v>0.1998</v>
       </c>
       <c r="B12" s="0">
-        <v>656.55</v>
+        <v>673.3131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2565</v>
+        <v>0.2485</v>
       </c>
       <c r="B13" s="0">
-        <v>666.9202</v>
+        <v>721.8318</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3099</v>
+        <v>0.3045</v>
       </c>
       <c r="B14" s="0">
-        <v>673.6355</v>
+        <v>769.8318</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.362</v>
+        <v>0.3514</v>
       </c>
       <c r="B15" s="0">
-        <v>679.3104</v>
+        <v>801.4812</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3992</v>
+        <v>0.3995</v>
       </c>
       <c r="B16" s="0">
-        <v>682.3966</v>
+        <v>825.9719</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.45</v>
+        <v>0.4507</v>
       </c>
       <c r="B17" s="0">
-        <v>684.9478</v>
+        <v>840.7457</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5003</v>
+        <v>0.5</v>
       </c>
       <c r="B18" s="0">
-        <v>686.9788</v>
+        <v>849.8978</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5505</v>
+        <v>0.5499</v>
       </c>
       <c r="B19" s="0">
-        <v>689.5306</v>
+        <v>855.4704</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5995</v>
+        <v>0.6005</v>
       </c>
       <c r="B20" s="0">
-        <v>691.0421</v>
+        <v>859.5087</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6504</v>
+        <v>0.6498</v>
       </c>
       <c r="B21" s="0">
-        <v>692.5516</v>
+        <v>862.5257</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6994</v>
+        <v>0.7004</v>
       </c>
       <c r="B22" s="0">
-        <v>694.063</v>
+        <v>864.0078</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7503</v>
+        <v>0.7509</v>
       </c>
       <c r="B23" s="0">
-        <v>695.0517</v>
+        <v>865.4899</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8005</v>
+        <v>0.8009</v>
       </c>
       <c r="B24" s="0">
-        <v>695.5202</v>
+        <v>867.4838</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8191</v>
+        <v>0.821</v>
       </c>
       <c r="B25" s="0">
-        <v>695.5008</v>
+        <v>867.4632</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8489</v>
+        <v>0.8508</v>
       </c>
       <c r="B26" s="0">
-        <v>697.0323</v>
+        <v>868.9665</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8743</v>
+        <v>0.8758</v>
       </c>
       <c r="B27" s="0">
-        <v>697.0058</v>
+        <v>869.9634</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8998</v>
+        <v>0.9007</v>
       </c>
       <c r="B28" s="0">
-        <v>696.9793</v>
+        <v>870.4492</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9233</v>
+        <v>0.9257</v>
       </c>
       <c r="B29" s="0">
-        <v>698.5173</v>
+        <v>870.9349</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.95</v>
+        <v>0.9519</v>
       </c>
       <c r="B30" s="0">
-        <v>698.4895</v>
+        <v>871.9306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9761</v>
+        <v>0.9762</v>
       </c>
       <c r="B31" s="0">
-        <v>700.0248</v>
+        <v>873.4394</v>
       </c>
     </row>
     <row r="32"/>
@@ -16425,7 +16449,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16446,261 +16470,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.009</v>
+        <v>0.0091</v>
       </c>
       <c r="B3" s="0">
-        <v>282.6558</v>
+        <v>258.2224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0303</v>
+        <v>0.0292</v>
       </c>
       <c r="B4" s="0">
-        <v>321.6802</v>
+        <v>280.3595</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0595</v>
+        <v>0.0593</v>
       </c>
       <c r="B5" s="0">
-        <v>350.4065</v>
+        <v>293.3575</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
       <c r="B6" s="0">
-        <v>367.2087</v>
+        <v>298.2543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0994</v>
+        <v>0.1023</v>
       </c>
       <c r="B7" s="0">
-        <v>379.1328</v>
+        <v>301.5332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1202</v>
+        <v>0.1235</v>
       </c>
       <c r="B8" s="0">
-        <v>391.5989</v>
+        <v>303.1956</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1404</v>
+        <v>0.143</v>
       </c>
       <c r="B9" s="0">
-        <v>401.897</v>
+        <v>305.9321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1611</v>
+        <v>0.162</v>
       </c>
       <c r="B10" s="0">
-        <v>412.1951</v>
+        <v>307.5896</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1825</v>
+        <v>0.1826</v>
       </c>
       <c r="B11" s="0">
-        <v>421.4092</v>
+        <v>309.2508</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2038</v>
+        <v>0.2005</v>
       </c>
       <c r="B12" s="0">
-        <v>430.0813</v>
+        <v>309.8282</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2499</v>
+        <v>0.2502</v>
       </c>
       <c r="B13" s="0">
-        <v>445.2575</v>
+        <v>312.0908</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3071</v>
+        <v>0.301</v>
       </c>
       <c r="B14" s="0">
-        <v>460.4336</v>
+        <v>313.8169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.361</v>
+        <v>0.3529</v>
       </c>
       <c r="B15" s="0">
-        <v>471.2737</v>
+        <v>315.5454</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3998</v>
+        <v>0.3993</v>
       </c>
       <c r="B16" s="0">
-        <v>476.1518</v>
+        <v>315.6453</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4486</v>
+        <v>0.4512</v>
       </c>
       <c r="B17" s="0">
-        <v>482.1138</v>
+        <v>316.2961</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4997</v>
+        <v>0.4998</v>
       </c>
       <c r="B18" s="0">
-        <v>485.9079</v>
+        <v>318.5563</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5486</v>
+        <v>0.5506</v>
       </c>
       <c r="B19" s="0">
-        <v>487.5339</v>
+        <v>318.127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5991</v>
+        <v>0.5997</v>
       </c>
       <c r="B20" s="0">
-        <v>488.0759</v>
+        <v>319.3106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6496</v>
+        <v>0.6494</v>
       </c>
       <c r="B21" s="0">
-        <v>490.2439</v>
+        <v>319.4177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.699</v>
+        <v>0.7008</v>
       </c>
       <c r="B22" s="0">
-        <v>490.2439</v>
+        <v>318.4507</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7496</v>
+        <v>0.7499</v>
       </c>
       <c r="B23" s="0">
-        <v>490.7859</v>
+        <v>319.0955</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7984</v>
+        <v>0.8119</v>
       </c>
       <c r="B24" s="0">
-        <v>491.3279</v>
+        <v>319.2291</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8192</v>
+        <v>0.8314</v>
       </c>
       <c r="B25" s="0">
-        <v>490.7859</v>
+        <v>319.2712</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8478</v>
+        <v>0.8504</v>
       </c>
       <c r="B26" s="0">
-        <v>492.4119</v>
+        <v>319.3121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8737</v>
+        <v>0.8755</v>
       </c>
       <c r="B27" s="0">
-        <v>492.4119</v>
+        <v>319.9052</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8989</v>
+        <v>0.9107</v>
       </c>
       <c r="B28" s="0">
-        <v>492.9539</v>
+        <v>319.4421</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9236</v>
+        <v>0.9252</v>
       </c>
       <c r="B29" s="0">
-        <v>492.4119</v>
+        <v>319.4734</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9371</v>
+        <v>0.9498</v>
       </c>
       <c r="B30" s="0">
-        <v>494.0379</v>
+        <v>320.6041</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9495</v>
+        <v>0.9883</v>
       </c>
       <c r="B31" s="0">
-        <v>493.4959</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.9629</v>
-      </c>
-      <c r="B32" s="0">
-        <v>494.0379</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.9775</v>
-      </c>
-      <c r="B33" s="0">
-        <v>495.122</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>1.0011</v>
-      </c>
-      <c r="B34" s="0">
-        <v>494.5799</v>
-      </c>
-    </row>
-    <row r="35"/>
+        <v>319.6094</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -16730,242 +16730,242 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.009</v>
+        <v>0.0089</v>
       </c>
       <c r="B3" s="0">
-        <v>413.2791</v>
+        <v>365.4582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0286</v>
+        <v>0.0283</v>
       </c>
       <c r="B4" s="0">
-        <v>480.4878</v>
+        <v>412.9211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0595</v>
+        <v>0.0567</v>
       </c>
       <c r="B5" s="0">
-        <v>540.6504</v>
+        <v>449.6259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.078</v>
+        <v>0.079</v>
       </c>
       <c r="B6" s="0">
-        <v>572.6287</v>
+        <v>466.918</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0983</v>
+        <v>0.1013</v>
       </c>
       <c r="B7" s="0">
-        <v>603.523</v>
+        <v>479.3602</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1185</v>
+        <v>0.1236</v>
       </c>
       <c r="B8" s="0">
-        <v>632.2493</v>
+        <v>488.5692</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1387</v>
+        <v>0.1459</v>
       </c>
       <c r="B9" s="0">
-        <v>658.2656</v>
+        <v>495.0838</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1595</v>
+        <v>0.1677</v>
       </c>
       <c r="B10" s="0">
-        <v>681.5718</v>
+        <v>500.5195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1802</v>
+        <v>0.1894</v>
       </c>
       <c r="B11" s="0">
-        <v>703.794</v>
+        <v>503.7997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.201</v>
+        <v>0.2073</v>
       </c>
       <c r="B12" s="0">
-        <v>724.3902</v>
+        <v>506.5325</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2476</v>
+        <v>0.2497</v>
       </c>
       <c r="B13" s="0">
-        <v>760.1626</v>
+        <v>510.3961</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3111</v>
+        <v>0.3028</v>
       </c>
       <c r="B14" s="0">
-        <v>795.935</v>
+        <v>513.2048</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3706</v>
+        <v>0.3536</v>
       </c>
       <c r="B15" s="0">
-        <v>815.4472</v>
+        <v>517.0865</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4076</v>
+        <v>0.3982</v>
       </c>
       <c r="B16" s="0">
-        <v>822.4932</v>
+        <v>518.7994</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4481</v>
+        <v>0.4496</v>
       </c>
       <c r="B17" s="0">
-        <v>828.4553</v>
+        <v>520.5267</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4986</v>
+        <v>0.4998</v>
       </c>
       <c r="B18" s="0">
-        <v>834.9593</v>
+        <v>522.7905</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5497</v>
+        <v>0.549</v>
       </c>
       <c r="B19" s="0">
-        <v>838.7534</v>
+        <v>524.513</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6002</v>
+        <v>0.5998</v>
       </c>
       <c r="B20" s="0">
-        <v>842.0054</v>
+        <v>524.6226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6496</v>
+        <v>0.6495</v>
       </c>
       <c r="B21" s="0">
-        <v>844.7154</v>
+        <v>525.8074</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7002</v>
+        <v>0.7003</v>
       </c>
       <c r="B22" s="0">
-        <v>847.4255</v>
+        <v>526.9947</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7507</v>
+        <v>0.7494</v>
       </c>
       <c r="B23" s="0">
-        <v>850.1355</v>
+        <v>527.1006</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8001</v>
+        <v>0.7997</v>
       </c>
       <c r="B24" s="0">
-        <v>851.2195</v>
+        <v>527.2089</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8203</v>
+        <v>0.8186</v>
       </c>
       <c r="B25" s="0">
-        <v>852.3035</v>
+        <v>527.2498</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8501</v>
+        <v>0.8488</v>
       </c>
       <c r="B26" s="0">
-        <v>853.9295</v>
+        <v>527.8537</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8748</v>
+        <v>0.875</v>
       </c>
       <c r="B27" s="0">
-        <v>855.0136</v>
+        <v>527.9103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9006</v>
+        <v>0.9002</v>
       </c>
       <c r="B28" s="0">
-        <v>856.0976</v>
+        <v>528.5033</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9248</v>
+        <v>0.9247</v>
       </c>
       <c r="B29" s="0">
-        <v>856.0976</v>
+        <v>529.0951</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9506</v>
+        <v>0.9498</v>
       </c>
       <c r="B30" s="0">
-        <v>858.2656</v>
+        <v>528.6104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9759</v>
+        <v>0.975</v>
       </c>
       <c r="B31" s="0">
-        <v>859.8916</v>
+        <v>530.2812</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9893</v>
+        <v>0.9956</v>
       </c>
       <c r="B32" s="0">
-        <v>864.7696</v>
+        <v>531.4035</v>
       </c>
     </row>
     <row r="33"/>
